--- a/medicine/Pharmacie/Albicidine/Albicidine.xlsx
+++ b/medicine/Pharmacie/Albicidine/Albicidine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'albicidine est une molécule antibiotique et phytotoxique sécrétée par la bactérie Xanthomonas albilineans, qui infecte la canne à sucre. 
-Comme phytotoxine, elle agit en inhibant la différenciation des chloroplastes[2], plus précisément en inhibant l’ADN gyrase, et donc en empêchant la réplication de l’ADN chloroplastique[3]. À ce titre elle joue un rôle majeur dans la maladie de l'échaudure des feuilles.
-Ses propriétés antibiotiques ont été découvertes au début des années 1980, lorsque la molécule a été isolée et purifiée à partir de cultures de Xanthomonas albilineans[4]. La structure précise de la molécule n'a cependant été identifiée qu'en 2014[5], ce qui a permis d'en optimiser la production par biosynthèse. C'est un polycétide complexe, un peptide polyaromatique essentiellement composé d'acide para-aminobenzoïque et de cyanoalanine[6]. 
+Comme phytotoxine, elle agit en inhibant la différenciation des chloroplastes, plus précisément en inhibant l’ADN gyrase, et donc en empêchant la réplication de l’ADN chloroplastique. À ce titre elle joue un rôle majeur dans la maladie de l'échaudure des feuilles.
+Ses propriétés antibiotiques ont été découvertes au début des années 1980, lorsque la molécule a été isolée et purifiée à partir de cultures de Xanthomonas albilineans. La structure précise de la molécule n'a cependant été identifiée qu'en 2014, ce qui a permis d'en optimiser la production par biosynthèse. C'est un polycétide complexe, un peptide polyaromatique essentiellement composé d'acide para-aminobenzoïque et de cyanoalanine. 
 </t>
         </is>
       </c>
